--- a/Resources/TestData/TechScoreData.xlsx
+++ b/Resources/TestData/TechScoreData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srivachan A\eclipse-workspace\ModularFrameworkPOC\Resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_Projects\ModularFrameworkPOC\Resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72F7864-A0DC-4B21-B39A-86D3738DBCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE182FF9-78B1-45AE-B9B3-5337A037A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CandidateData" sheetId="1" r:id="rId1"/>
     <sheet name="RolesData" sheetId="2" r:id="rId2"/>
+    <sheet name="Credentials" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -281,6 +282,30 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>refName</t>
+  </si>
+  <si>
+    <t>UserEmail</t>
+  </si>
+  <si>
+    <t>UserPassword</t>
+  </si>
+  <si>
+    <t>cred1</t>
+  </si>
+  <si>
+    <t>lbasidoni@bayonesolutions.com</t>
+  </si>
+  <si>
+    <t>LakkappaB@18</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://app.stage.yourtechscore.com/</t>
   </si>
 </sst>
 </file>
@@ -331,11 +356,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -620,25 +646,25 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.06640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -712,7 +738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -748,7 +774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -784,7 +810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -820,7 +846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -856,7 +882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -892,7 +918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -928,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -964,7 +990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1000,7 +1026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1014,7 +1040,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1028,7 +1054,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1042,7 +1068,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1056,7 +1082,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1101,14 +1127,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1119,7 +1145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1134,4 +1160,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5FD1EE-CD3E-4C78-BC31-E4B5EAE368E4}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="36.08984375" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{370324BD-D0FC-4D5B-9CA8-1382AF7A3F40}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{21DF469F-22F3-41BB-8A7D-4C77EAABAA72}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{91C4A6D1-C032-42F7-9AF0-D5DF4AAC8671}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>